--- a/Code/Results/Cases/Case_2_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.466321892068834</v>
+        <v>1.076787375235938</v>
       </c>
       <c r="C2">
-        <v>0.9481969129488448</v>
+        <v>0.2943354055668976</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.480118131831759</v>
+        <v>0.4255643275966747</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>1.050386698005752</v>
+        <v>0.5232567969287771</v>
       </c>
       <c r="H2">
-        <v>0.5547204796533265</v>
+        <v>0.5571753376443098</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.3973029626650337</v>
+        <v>0.7961550539550686</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.990500193953778</v>
+        <v>0.9442550216814425</v>
       </c>
       <c r="C3">
-        <v>0.8228750533657205</v>
+        <v>0.2581565504037542</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.263659643328779</v>
+        <v>0.3709200983669376</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.9107072200431077</v>
+        <v>0.4945668692263752</v>
       </c>
       <c r="H3">
-        <v>0.4994532635400759</v>
+        <v>0.550243034963259</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4388935260480959</v>
+        <v>0.8109929100195892</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.702112238852635</v>
+        <v>0.8629992606441874</v>
       </c>
       <c r="C4">
-        <v>0.7468712380006082</v>
+        <v>0.2358672522050256</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.134393140600295</v>
+        <v>0.3374952783154015</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.8288620224397505</v>
+        <v>0.4775482529312285</v>
       </c>
       <c r="H4">
-        <v>0.4675781913483519</v>
+        <v>0.5464891191450647</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4657719815300023</v>
+        <v>0.8205836416061167</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.585374897736699</v>
+        <v>0.8299153478238281</v>
       </c>
       <c r="C5">
-        <v>0.7160897876061938</v>
+        <v>0.2267646895008113</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.082481094540881</v>
+        <v>0.3239035326057262</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.7963733443724408</v>
+        <v>0.47076067111621</v>
       </c>
       <c r="H5">
-        <v>0.4550506638733225</v>
+        <v>0.5450847034241519</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4770450556282224</v>
+        <v>0.8246124222865809</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.566033545969958</v>
+        <v>0.8244234624743854</v>
       </c>
       <c r="C6">
-        <v>0.7109887963209758</v>
+        <v>0.2252520227802108</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.073903284716735</v>
+        <v>0.3216483128056353</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.7910274762011653</v>
+        <v>0.4696424426186638</v>
       </c>
       <c r="H6">
-        <v>0.4529968373756361</v>
+        <v>0.5448590411663758</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4789357813481985</v>
+        <v>0.8252886669596524</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.700534913151046</v>
+        <v>0.8625529662547251</v>
       </c>
       <c r="C7">
-        <v>0.7464553945911518</v>
+        <v>0.2357445714954167</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.133690124636459</v>
+        <v>0.3373118609214742</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.8284205226937473</v>
+        <v>0.4774561187386297</v>
       </c>
       <c r="H7">
-        <v>0.4674074408231803</v>
+        <v>0.5464696726005229</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.4659227408438031</v>
+        <v>0.8206374877113163</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.301371937997317</v>
+        <v>1.031064366036446</v>
       </c>
       <c r="C8">
-        <v>0.9047601794852937</v>
+        <v>0.2818762283141041</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.404631629915997</v>
+        <v>0.4066949469698073</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>1.001334873471208</v>
+        <v>0.5132390549876362</v>
       </c>
       <c r="H8">
-        <v>0.5352014413217603</v>
+        <v>0.5546801474046106</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4113538612608121</v>
+        <v>0.801171307808481</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.517964453552054</v>
+        <v>1.362554725291261</v>
       </c>
       <c r="C9">
-        <v>1.225106088991936</v>
+        <v>0.371771856845811</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.972700394055167</v>
+        <v>0.5438950866233654</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.377723365802495</v>
+        <v>0.5882646474215107</v>
       </c>
       <c r="H9">
-        <v>0.6873468326933221</v>
+        <v>0.574816947286223</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3158741309941568</v>
+        <v>0.7668207474566096</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.448846790669052</v>
+        <v>1.606886199601774</v>
       </c>
       <c r="C10">
-        <v>1.470452874846444</v>
+        <v>0.4375188874974469</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.425557496120319</v>
+        <v>0.645585338494044</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.68701953432199</v>
+        <v>0.6465150592660791</v>
       </c>
       <c r="H10">
-        <v>0.8154504963987392</v>
+        <v>0.592142126692238</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.2541609065436354</v>
+        <v>0.7439300673870584</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.884075226608275</v>
+        <v>1.718244360992458</v>
       </c>
       <c r="C11">
-        <v>1.5853188587364</v>
+        <v>0.4673746973901984</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.642980423767611</v>
+        <v>0.6920831524424926</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.837558586461995</v>
+        <v>0.6737313741140554</v>
       </c>
       <c r="H11">
-        <v>0.8785240134313597</v>
+        <v>0.6005888217591462</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2282944319485587</v>
+        <v>0.7340297432797129</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.050949734986716</v>
+        <v>1.760445446239316</v>
       </c>
       <c r="C12">
-        <v>1.629394318684945</v>
+        <v>0.4786734757274758</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.727342957327281</v>
+        <v>0.7097283395062846</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.896254136790475</v>
+        <v>0.6841436714652218</v>
       </c>
       <c r="H12">
-        <v>0.903225194524623</v>
+        <v>0.6038699047668672</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2188548189647186</v>
+        <v>0.7303548328659453</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.014911950607257</v>
+        <v>1.75135522618416</v>
       </c>
       <c r="C13">
-        <v>1.61987419021915</v>
+        <v>0.4762403813953142</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.7090766664912</v>
+        <v>0.7059264146670898</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.883532939852643</v>
+        <v>0.6818964339394711</v>
       </c>
       <c r="H13">
-        <v>0.8978667733421446</v>
+        <v>0.6031595761783421</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2208713247371072</v>
+        <v>0.7311429873526833</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.897760386857215</v>
+        <v>1.721715613995286</v>
       </c>
       <c r="C14">
-        <v>1.588932681870574</v>
+        <v>0.4683043906848638</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.649877798758197</v>
+        <v>0.693534063076811</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.842351890144812</v>
+        <v>0.6745858579275534</v>
       </c>
       <c r="H14">
-        <v>0.8805390223043048</v>
+        <v>0.6008570980101808</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2275104646875974</v>
+        <v>0.7337259182724409</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.826282460853292</v>
+        <v>1.703564741717173</v>
       </c>
       <c r="C15">
-        <v>1.570059026248771</v>
+        <v>0.4634424786444242</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.613893936693657</v>
+        <v>0.6859483658443679</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.81735634931681</v>
+        <v>0.6701218171602079</v>
       </c>
       <c r="H15">
-        <v>0.8700357624823312</v>
+        <v>0.5994575439097503</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2316246582127874</v>
+        <v>0.7353177034825826</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.42067061463797</v>
+        <v>1.599613078949062</v>
       </c>
       <c r="C16">
-        <v>1.463020586752975</v>
+        <v>0.4355667302390316</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.411609458111101</v>
+        <v>0.6425516658704424</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.677401849988513</v>
+        <v>0.6447510968219206</v>
       </c>
       <c r="H16">
-        <v>0.8114353767134048</v>
+        <v>0.5916015945818458</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.2558988708976528</v>
+        <v>0.7445874282516023</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.175098795242434</v>
+        <v>1.535897354951999</v>
       </c>
       <c r="C17">
-        <v>1.398262158513205</v>
+        <v>0.4184527700836611</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.290690086463627</v>
+        <v>0.6159925106806554</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.594245216527042</v>
+        <v>0.629372861873577</v>
       </c>
       <c r="H17">
-        <v>0.776798319685156</v>
+        <v>0.586927881927096</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.2713808337018726</v>
+        <v>0.7504057105877422</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.034934187665499</v>
+        <v>1.499269457224329</v>
       </c>
       <c r="C18">
-        <v>1.361313706147826</v>
+        <v>0.4086042602571069</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.222187667378677</v>
+        <v>0.6007386328926003</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.547322797245869</v>
+        <v>0.6205951093949977</v>
       </c>
       <c r="H18">
-        <v>0.7573189191006691</v>
+        <v>0.5842928297936965</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.280490792191511</v>
+        <v>0.7538004720043467</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.987652370707565</v>
+        <v>1.48687120746564</v>
       </c>
       <c r="C19">
-        <v>1.348851896274653</v>
+        <v>0.4052688442038743</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.199163227911626</v>
+        <v>0.5955776564294695</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.531583847295053</v>
+        <v>0.6176346036863265</v>
       </c>
       <c r="H19">
-        <v>0.7507960922910968</v>
+        <v>0.5834097375752094</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.2836094389605606</v>
+        <v>0.7549581532364193</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.201125886009493</v>
+        <v>1.542677949992594</v>
       </c>
       <c r="C20">
-        <v>1.405124137495079</v>
+        <v>0.4202750946279821</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.303451221135717</v>
+        <v>0.6188174527985382</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>1.603001663212524</v>
+        <v>0.6310029050111154</v>
       </c>
       <c r="H20">
-        <v>0.7804388057088829</v>
+        <v>0.5874198977937226</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.2697112645098123</v>
+        <v>0.7497813491070602</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.932111366775359</v>
+        <v>1.73042059825741</v>
       </c>
       <c r="C21">
-        <v>1.598004281689384</v>
+        <v>0.4706355675623968</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.667207371598451</v>
+        <v>0.6971729543802496</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.854399468633858</v>
+        <v>0.6767302498469974</v>
       </c>
       <c r="H21">
-        <v>0.8856053184558448</v>
+        <v>0.6015311428947143</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2255504063360085</v>
+        <v>0.7329652338618118</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.422100108855147</v>
+        <v>1.853309677630193</v>
       </c>
       <c r="C22">
-        <v>1.727499774297769</v>
+        <v>0.503508731639613</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.917014423496738</v>
+        <v>0.7486027545356819</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>2.028716810974146</v>
+        <v>0.7072353087080216</v>
       </c>
       <c r="H22">
-        <v>0.9591737524226573</v>
+        <v>0.6112351172683361</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.1987831457809328</v>
+        <v>0.7224071925246527</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.159322570589154</v>
+        <v>1.787703585564259</v>
       </c>
       <c r="C23">
-        <v>1.658029112717315</v>
+        <v>0.4859671818801985</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.782432486582337</v>
+        <v>0.721132507223345</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>1.934659710991241</v>
+        <v>0.6908965457654404</v>
       </c>
       <c r="H23">
-        <v>0.9194183633590569</v>
+        <v>0.6060114684341329</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2128633909766968</v>
+        <v>0.728002533030832</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.189355894828395</v>
+        <v>1.539612433395746</v>
       </c>
       <c r="C24">
-        <v>1.402020966334021</v>
+        <v>0.4194512512337951</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.297678776357472</v>
+        <v>0.6175402489446782</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>1.599040135809048</v>
+        <v>0.6302657652471169</v>
       </c>
       <c r="H24">
-        <v>0.7787915997177208</v>
+        <v>0.5871972957684193</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.2704654280260925</v>
+        <v>0.7500634679915059</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.183444027004214</v>
+        <v>1.272750982266416</v>
       </c>
       <c r="C25">
-        <v>1.137011432649786</v>
+        <v>0.3475087309480784</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.813870243002654</v>
+        <v>0.5066368618291079</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>1.270958926172625</v>
+        <v>0.5674310670014506</v>
       </c>
       <c r="H25">
-        <v>0.6436951938309505</v>
+        <v>0.5689301227765498</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.3403360149879013</v>
+        <v>0.7757026053385303</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.076787375235938</v>
+        <v>3.466321892068834</v>
       </c>
       <c r="C2">
-        <v>0.2943354055668976</v>
+        <v>0.9481969129489016</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4255643275966747</v>
+        <v>1.48011813183173</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5232567969287771</v>
+        <v>1.050386698005653</v>
       </c>
       <c r="H2">
-        <v>0.5571753376443098</v>
+        <v>0.5547204796532981</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7961550539550686</v>
+        <v>0.3973029626650479</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9442550216814425</v>
+        <v>2.990500193953608</v>
       </c>
       <c r="C3">
-        <v>0.2581565504037542</v>
+        <v>0.8228750533656068</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3709200983669376</v>
+        <v>1.263659643328779</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.4945668692263752</v>
+        <v>0.9107072200430935</v>
       </c>
       <c r="H3">
-        <v>0.550243034963259</v>
+        <v>0.4994532635400759</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8109929100195892</v>
+        <v>0.4388935260480924</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8629992606441874</v>
+        <v>2.702112238852862</v>
       </c>
       <c r="C4">
-        <v>0.2358672522050256</v>
+        <v>0.7468712380003808</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3374952783154015</v>
+        <v>1.134393140600267</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.4775482529312285</v>
+        <v>0.8288620224397221</v>
       </c>
       <c r="H4">
-        <v>0.5464891191450647</v>
+        <v>0.4675781913483519</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8205836416061167</v>
+        <v>0.4657719815299561</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8299153478238281</v>
+        <v>2.585374897736813</v>
       </c>
       <c r="C5">
-        <v>0.2267646895008113</v>
+        <v>0.7160897876063359</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3239035326057262</v>
+        <v>1.082481094540839</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.47076067111621</v>
+        <v>0.7963733443724124</v>
       </c>
       <c r="H5">
-        <v>0.5450847034241519</v>
+        <v>0.4550506638733225</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8246124222865809</v>
+        <v>0.4770450556282206</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8244234624743854</v>
+        <v>2.566033545969788</v>
       </c>
       <c r="C6">
-        <v>0.2252520227802108</v>
+        <v>0.7109887963205779</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3216483128056353</v>
+        <v>1.073903284716664</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.4696424426186638</v>
+        <v>0.7910274762011795</v>
       </c>
       <c r="H6">
-        <v>0.5448590411663758</v>
+        <v>0.4529968373756361</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8252886669596524</v>
+        <v>0.478935781348186</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8625529662547251</v>
+        <v>2.700534913150989</v>
       </c>
       <c r="C7">
-        <v>0.2357445714954167</v>
+        <v>0.7464553945909529</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3373118609214742</v>
+        <v>1.133690124636473</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.4774561187386297</v>
+        <v>0.8284205226937615</v>
       </c>
       <c r="H7">
-        <v>0.5464696726005229</v>
+        <v>0.4674074408231803</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8206374877113163</v>
+        <v>0.4659227408438102</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.031064366036446</v>
+        <v>3.301371937997374</v>
       </c>
       <c r="C8">
-        <v>0.2818762283141041</v>
+        <v>0.9047601794854927</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4066949469698073</v>
+        <v>1.404631629916025</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.5132390549876362</v>
+        <v>1.001334873471293</v>
       </c>
       <c r="H8">
-        <v>0.5546801474046106</v>
+        <v>0.5352014413218598</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.801171307808481</v>
+        <v>0.4113538612608227</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.362554725291261</v>
+        <v>4.517964453552167</v>
       </c>
       <c r="C9">
-        <v>0.371771856845811</v>
+        <v>1.225106088992021</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5438950866233654</v>
+        <v>1.972700394055153</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.5882646474215107</v>
+        <v>1.377723365802495</v>
       </c>
       <c r="H9">
-        <v>0.574816947286223</v>
+        <v>0.6873468326932937</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7668207474566096</v>
+        <v>0.3158741309941604</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.606886199601774</v>
+        <v>5.448846790669108</v>
       </c>
       <c r="C10">
-        <v>0.4375188874974469</v>
+        <v>1.470452874846501</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.645585338494044</v>
+        <v>2.425557496120334</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.6465150592660791</v>
+        <v>1.687019534322019</v>
       </c>
       <c r="H10">
-        <v>0.592142126692238</v>
+        <v>0.8154504963987392</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7439300673870584</v>
+        <v>0.2541609065435857</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.718244360992458</v>
+        <v>5.884075226608275</v>
       </c>
       <c r="C11">
-        <v>0.4673746973901984</v>
+        <v>1.5853188587364</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6920831524424926</v>
+        <v>2.642980423767668</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.6737313741140554</v>
+        <v>1.83755858646191</v>
       </c>
       <c r="H11">
-        <v>0.6005888217591462</v>
+        <v>0.8785240134313597</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7340297432797129</v>
+        <v>0.2282944319485516</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.760445446239316</v>
+        <v>6.050949734986659</v>
       </c>
       <c r="C12">
-        <v>0.4786734757274758</v>
+        <v>1.629394318684945</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7097283395062846</v>
+        <v>2.727342957327323</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.6841436714652218</v>
+        <v>1.896254136790532</v>
       </c>
       <c r="H12">
-        <v>0.6038699047668672</v>
+        <v>0.9032251945245946</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7303548328659453</v>
+        <v>0.218854818964715</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.75135522618416</v>
+        <v>6.0149119506072</v>
       </c>
       <c r="C13">
-        <v>0.4762403813953142</v>
+        <v>1.619874190218979</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7059264146670898</v>
+        <v>2.709076666491171</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.6818964339394711</v>
+        <v>1.883532939852728</v>
       </c>
       <c r="H13">
-        <v>0.6031595761783421</v>
+        <v>0.8978667733420593</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7311429873526833</v>
+        <v>0.2208713247370966</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.721715613995286</v>
+        <v>5.897760386857328</v>
       </c>
       <c r="C14">
-        <v>0.4683043906848638</v>
+        <v>1.588932681870858</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.693534063076811</v>
+        <v>2.649877798758254</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6745858579275534</v>
+        <v>1.842351890144784</v>
       </c>
       <c r="H14">
-        <v>0.6008570980101808</v>
+        <v>0.8805390223041911</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7337259182724409</v>
+        <v>0.2275104646875938</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.703564741717173</v>
+        <v>5.826282460853292</v>
       </c>
       <c r="C15">
-        <v>0.4634424786444242</v>
+        <v>1.570059026248714</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6859483658443679</v>
+        <v>2.613893936693685</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.6701218171602079</v>
+        <v>1.817356349316867</v>
       </c>
       <c r="H15">
-        <v>0.5994575439097503</v>
+        <v>0.8700357624824449</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7353177034825826</v>
+        <v>0.2316246582127803</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.599613078949062</v>
+        <v>5.4206706146378</v>
       </c>
       <c r="C16">
-        <v>0.4355667302390316</v>
+        <v>1.463020586753203</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6425516658704424</v>
+        <v>2.411609458111116</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.6447510968219206</v>
+        <v>1.677401849988513</v>
       </c>
       <c r="H16">
-        <v>0.5916015945818458</v>
+        <v>0.8114353767134332</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7445874282516023</v>
+        <v>0.2558988708976599</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.535897354951999</v>
+        <v>5.175098795242661</v>
       </c>
       <c r="C17">
-        <v>0.4184527700836611</v>
+        <v>1.398262158513205</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6159925106806554</v>
+        <v>2.290690086463655</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.629372861873577</v>
+        <v>1.594245216527042</v>
       </c>
       <c r="H17">
-        <v>0.586927881927096</v>
+        <v>0.7767983196850423</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7504057105877422</v>
+        <v>0.2713808337018122</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.499269457224329</v>
+        <v>5.034934187665613</v>
       </c>
       <c r="C18">
-        <v>0.4086042602571069</v>
+        <v>1.361313706147826</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6007386328926003</v>
+        <v>2.222187667378648</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.6205951093949977</v>
+        <v>1.547322797245783</v>
       </c>
       <c r="H18">
-        <v>0.5842928297936965</v>
+        <v>0.7573189191007828</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7538004720043467</v>
+        <v>0.2804907921914968</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.48687120746564</v>
+        <v>4.987652370707622</v>
       </c>
       <c r="C19">
-        <v>0.4052688442038743</v>
+        <v>1.348851896274425</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5955776564294695</v>
+        <v>2.199163227911683</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.6176346036863265</v>
+        <v>1.53158384729511</v>
       </c>
       <c r="H19">
-        <v>0.5834097375752094</v>
+        <v>0.750796092291182</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7549581532364193</v>
+        <v>0.2836094389605606</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.542677949992594</v>
+        <v>5.201125886009265</v>
       </c>
       <c r="C20">
-        <v>0.4202750946279821</v>
+        <v>1.405124137494852</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6188174527985382</v>
+        <v>2.303451221135703</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6310029050111154</v>
+        <v>1.603001663212495</v>
       </c>
       <c r="H20">
-        <v>0.5874198977937226</v>
+        <v>0.7804388057089682</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7497813491070602</v>
+        <v>0.2697112645098301</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.73042059825741</v>
+        <v>5.932111366775473</v>
       </c>
       <c r="C21">
-        <v>0.4706355675623968</v>
+        <v>1.598004281689384</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6971729543802496</v>
+        <v>2.667207371598423</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.6767302498469974</v>
+        <v>1.854399468633858</v>
       </c>
       <c r="H21">
-        <v>0.6015311428947143</v>
+        <v>0.8856053184558448</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7329652338618118</v>
+        <v>0.2255504063360085</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.853309677630193</v>
+        <v>6.422100108854977</v>
       </c>
       <c r="C22">
-        <v>0.503508731639613</v>
+        <v>1.727499774297769</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7486027545356819</v>
+        <v>2.917014423496695</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.7072353087080216</v>
+        <v>2.028716810974117</v>
       </c>
       <c r="H22">
-        <v>0.6112351172683361</v>
+        <v>0.9591737524226573</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7224071925246527</v>
+        <v>0.1987831457809435</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.787703585564259</v>
+        <v>6.159322570589268</v>
       </c>
       <c r="C23">
-        <v>0.4859671818801985</v>
+        <v>1.658029112717429</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.721132507223345</v>
+        <v>2.782432486582323</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.6908965457654404</v>
+        <v>1.934659710991298</v>
       </c>
       <c r="H23">
-        <v>0.6060114684341329</v>
+        <v>0.9194183633590569</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.728002533030832</v>
+        <v>0.2128633909766897</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.539612433395746</v>
+        <v>5.189355894828395</v>
       </c>
       <c r="C24">
-        <v>0.4194512512337951</v>
+        <v>1.402020966333907</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6175402489446782</v>
+        <v>2.297678776357458</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6302657652471169</v>
+        <v>1.599040135809105</v>
       </c>
       <c r="H24">
-        <v>0.5871972957684193</v>
+        <v>0.7787915997178629</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7500634679915059</v>
+        <v>0.2704654280260392</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.272750982266416</v>
+        <v>4.183444027004214</v>
       </c>
       <c r="C25">
-        <v>0.3475087309480784</v>
+        <v>1.137011432649899</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5066368618291079</v>
+        <v>1.813870243002611</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.5674310670014506</v>
+        <v>1.270958926172625</v>
       </c>
       <c r="H25">
-        <v>0.5689301227765498</v>
+        <v>0.6436951938309505</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7757026053385303</v>
+        <v>0.3403360149879653</v>
       </c>
       <c r="O25">
         <v>0</v>
